--- a/data/trans_dic/P56$privada-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1066529542827748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1993326398363681</v>
+        <v>0.1993326398363682</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1061745767416918</v>
@@ -714,34 +714,34 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02947814383508717</v>
+        <v>0.03271960898480258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07817933309530053</v>
+        <v>0.09486209639120535</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04134049901302107</v>
+        <v>0.04076541340374921</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04655222176811911</v>
+        <v>0.04564215342006276</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09462864373166935</v>
+        <v>0.09539239585147706</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1123109187208113</v>
+        <v>0.1129020912484192</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02900347503935192</v>
+        <v>0.03724911111870752</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04449965692951727</v>
+        <v>0.04378486462793253</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09529095727511319</v>
+        <v>0.09218386042426072</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1233057608254412</v>
+        <v>0.1251093938371653</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1745886069371954</v>
+        <v>0.1989709457712433</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2118145846528087</v>
+        <v>0.2039998224395375</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2550717308371571</v>
+        <v>0.2615677213797637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3673739524723866</v>
+        <v>0.3673942888804521</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2198473778018342</v>
+        <v>0.2175103850913143</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2142269822614175</v>
+        <v>0.1983207452370361</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3174840896081637</v>
+        <v>0.315998459115966</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2494015767402002</v>
+        <v>0.250192750593377</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1575217796486073</v>
+        <v>0.1712695132077793</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1672337957890477</v>
+        <v>0.1652490129497143</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2648870038819388</v>
+        <v>0.2560379493101393</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.247740709413512</v>
+        <v>0.2502781370263138</v>
       </c>
     </row>
     <row r="7">
@@ -853,31 +853,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.077120066591873</v>
+        <v>0.07577164035603542</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04644756424158395</v>
+        <v>0.04670994652634195</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0423253585628568</v>
+        <v>0.04226380708201233</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0333735615121814</v>
+        <v>0.03314728562515935</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1076215784815288</v>
+        <v>0.1097111708626911</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05289748747321549</v>
+        <v>0.05159862952665077</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05185975975614236</v>
+        <v>0.0517135364481448</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03423572479018106</v>
+        <v>0.03559922057249534</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.115756008633223</v>
+        <v>0.1165140181058613</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3577607486180927</v>
+        <v>0.3594206389314428</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2843128854125986</v>
+        <v>0.2918056601579126</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2070794541295988</v>
+        <v>0.2550929390617063</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2719785912927375</v>
+        <v>0.2733624381335986</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3358884948871208</v>
+        <v>0.3814385679534394</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1847660327690963</v>
+        <v>0.1859274149536284</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3410093788594181</v>
+        <v>0.3271744682928776</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2188820178254549</v>
+        <v>0.2162665571544712</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2829231145520041</v>
+        <v>0.2765179288574452</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1747097861133408</v>
+        <v>0.1630563054559538</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2547987473557111</v>
+        <v>0.2548477746121107</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2082172198124062</v>
+        <v>0.2126779114177485</v>
       </c>
     </row>
     <row r="10">
@@ -987,31 +987,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05614985452208315</v>
+        <v>0.05494967688459659</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.159179055313578</v>
+        <v>0.1433717593573879</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02822043901093056</v>
+        <v>0.02893652140428763</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1036932473536622</v>
+        <v>0.1131676186236287</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1124798316334924</v>
+        <v>0.1217103366373087</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03782080204587145</v>
+        <v>0.03792281799420099</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1054435121637868</v>
+        <v>0.1146365192877479</v>
       </c>
     </row>
     <row r="12">
@@ -1023,37 +1023,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.3057957783970212</v>
+        <v>0.2927003016065672</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4073493938548234</v>
+        <v>0.4419583180519271</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2465684143823029</v>
+        <v>0.2777207991461991</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4907957709172586</v>
+        <v>0.4929152890068255</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4875861708452757</v>
+        <v>0.4687000406871626</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2444744734618913</v>
+        <v>0.2312556110607164</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2565063995495519</v>
+        <v>0.2665173830237296</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2987555266451297</v>
+        <v>0.2978207893625462</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3632045920095496</v>
+        <v>0.3582679434832334</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.234063686329686</v>
+        <v>0.2262681148876482</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2356274000675894</v>
+        <v>0.2352741126285406</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.2654062527696551</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08741012210785983</v>
+        <v>0.08741012210785981</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0.2440426045431291</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.186451577329695</v>
+        <v>0.1864515773296949</v>
       </c>
     </row>
     <row r="14">
@@ -1116,30 +1116,30 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09885087385571478</v>
+        <v>0.09914152635712237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02176851178964582</v>
+        <v>0.02613067498144914</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.05543022735239322</v>
+        <v>0.05459871743522889</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05795241240435525</v>
+        <v>0.05747769773929992</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1473278408815705</v>
+        <v>0.1472712892109489</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
       <c r="L14" s="5" t="n">
-        <v>0.07907731812990731</v>
+        <v>0.07866349061507862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1293396993687056</v>
+        <v>0.1138765064655203</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1136062411558237</v>
+        <v>0.1190386779568714</v>
       </c>
     </row>
     <row r="15">
@@ -1151,33 +1151,33 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.8083772986568262</v>
+        <v>0.8073306453470608</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5038234447250215</v>
+        <v>0.5158340021315025</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2089353351270582</v>
+        <v>0.2116198349683373</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.445093752022591</v>
+        <v>0.3967515360735067</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4721858882972018</v>
+        <v>0.4564443407833953</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3695066450876862</v>
+        <v>0.3654932059802131</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="n">
-        <v>0.4177926109787298</v>
+        <v>0.4163752796963514</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4270032303056566</v>
+        <v>0.4186049431658451</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2779879605426191</v>
+        <v>0.2860937093757852</v>
       </c>
     </row>
     <row r="16">
@@ -1201,7 +1201,7 @@
         <v>0.1367019144014325</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1482351596738313</v>
+        <v>0.1482351596738314</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1183562514759423</v>
@@ -1236,40 +1236,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01749897222198628</v>
+        <v>0.01749798406137337</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0713750421629</v>
+        <v>0.0755700166878228</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09909327364845297</v>
+        <v>0.09736265146777222</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06612398610783696</v>
+        <v>0.05806553114997719</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09632402517452052</v>
+        <v>0.09891890799949402</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09436682751103355</v>
+        <v>0.1012319493131558</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1455491114972693</v>
+        <v>0.1468387542697332</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05490735629308793</v>
+        <v>0.0542636884366646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09177546755087163</v>
+        <v>0.09276015033514223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1008401968161686</v>
+        <v>0.1077160082070883</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1422672829914965</v>
+        <v>0.1436706144248304</v>
       </c>
     </row>
     <row r="18">
@@ -1280,40 +1280,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1453023615894987</v>
+        <v>0.1436989537232005</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.223960285144048</v>
+        <v>0.22346331269988</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2108698350659924</v>
+        <v>0.2123886264706817</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2000997371072305</v>
+        <v>0.1973263643330198</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2021592937189619</v>
+        <v>0.2058523820260836</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2294260421234351</v>
+        <v>0.2266101693283059</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2156312389668158</v>
+        <v>0.2144022817289166</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1556959013204413</v>
+        <v>0.1596201740708577</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1772064267543387</v>
+        <v>0.1783119968569201</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2046866456721796</v>
+        <v>0.207801049407173</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2048288759139423</v>
+        <v>0.201304692480691</v>
       </c>
     </row>
     <row r="19">
@@ -1590,34 +1590,34 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1948</v>
+        <v>2364</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3209</v>
+        <v>3146</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6200</v>
+        <v>6250</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8096</v>
+        <v>8138</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2063</v>
+        <v>2650</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4205</v>
+        <v>4138</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8531</v>
+        <v>8253</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11961</v>
+        <v>12136</v>
       </c>
     </row>
     <row r="7">
@@ -1628,40 +1628,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3884</v>
+        <v>4427</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5418</v>
+        <v>5218</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6124</v>
+        <v>6280</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>9154</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10749</v>
+        <v>10635</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14765</v>
+        <v>13669</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20800</v>
+        <v>20703</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17978</v>
+        <v>18035</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11207</v>
+        <v>12185</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15804</v>
+        <v>15616</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23714</v>
+        <v>22922</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>24031</v>
+        <v>24277</v>
       </c>
     </row>
     <row r="8">
@@ -1773,31 +1773,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2964</v>
+        <v>2912</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10840</v>
+        <v>11051</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1982</v>
+        <v>1934</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5307</v>
+        <v>5292</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2087</v>
+        <v>2170</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16109</v>
+        <v>16215</v>
       </c>
     </row>
     <row r="11">
@@ -1808,40 +1808,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5043</v>
+        <v>5067</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7340</v>
+        <v>7534</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3737</v>
+        <v>4604</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10454</v>
+        <v>10507</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7853</v>
+        <v>8918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14136</v>
+        <v>14225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14637</v>
+        <v>14043</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22047</v>
+        <v>21784</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10603</v>
+        <v>10363</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17878</v>
+        <v>16685</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15535</v>
+        <v>15538</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>28976</v>
+        <v>29597</v>
       </c>
     </row>
     <row r="12">
@@ -1951,31 +1951,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1300</v>
+        <v>1272</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6222</v>
+        <v>5604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5981</v>
+        <v>6527</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6728</v>
+        <v>7280</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2069</v>
+        <v>2075</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8523</v>
+        <v>9266</v>
       </c>
     </row>
     <row r="15">
@@ -1987,37 +1987,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>6340</v>
+        <v>6069</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5390</v>
+        <v>5848</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5709</v>
+        <v>6430</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6609</v>
+        <v>6637</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19057</v>
+        <v>18319</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10140</v>
+        <v>9592</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14794</v>
+        <v>15372</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6801</v>
+        <v>6780</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>21726</v>
+        <v>21431</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12805</v>
+        <v>12379</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19046</v>
+        <v>19017</v>
       </c>
     </row>
     <row r="16">
@@ -2124,30 +2124,30 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6101</v>
+        <v>6098</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
       <c r="L18" s="6" t="n">
-        <v>2056</v>
+        <v>2045</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4753</v>
+        <v>4185</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>7211</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="19">
@@ -2159,33 +2159,33 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5156</v>
+        <v>5149</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8065</v>
+        <v>8257</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>4611</v>
+        <v>4670</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>8731</v>
+        <v>7783</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9795</v>
+        <v>9468</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15301</v>
+        <v>15135</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="n">
-        <v>10861</v>
+        <v>10824</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15692</v>
+        <v>15384</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>17646</v>
+        <v>18160</v>
       </c>
     </row>
     <row r="20">
@@ -2291,37 +2291,37 @@
         <v>813</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5089</v>
+        <v>5388</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10759</v>
+        <v>10571</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6033</v>
+        <v>5298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19663</v>
+        <v>20193</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>16104</v>
+        <v>17276</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>39574</v>
+        <v>39925</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>7561</v>
+        <v>7472</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>25940</v>
+        <v>26218</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>24399</v>
+        <v>26062</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>54128</v>
+        <v>54662</v>
       </c>
     </row>
     <row r="23">
@@ -2332,40 +2332,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6752</v>
+        <v>6677</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15967</v>
+        <v>15932</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22895</v>
+        <v>23060</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18257</v>
+        <v>18004</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>41268</v>
+        <v>42022</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>39153</v>
+        <v>38673</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>58629</v>
+        <v>58295</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>21440</v>
+        <v>21980</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>50086</v>
+        <v>50398</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>49525</v>
+        <v>50278</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>77931</v>
+        <v>76590</v>
       </c>
     </row>
     <row r="24">
